--- a/MC_toetsen/Testbestanden/toetsinfo.xlsx
+++ b/MC_toetsen/Testbestanden/toetsinfo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>databestand</t>
   </si>
@@ -39,16 +39,22 @@
     <t>aantal versies</t>
   </si>
   <si>
-    <t>recrges_ruwedata.DEL</t>
-  </si>
-  <si>
     <t>Test toets</t>
   </si>
   <si>
     <t>heranalyse</t>
   </si>
   <si>
-    <t>y</t>
+    <t>n</t>
+  </si>
+  <si>
+    <t>samenvoegen</t>
+  </si>
+  <si>
+    <t>scoredata</t>
+  </si>
+  <si>
+    <t>fswicc1_ruwedata_new.DEL</t>
   </si>
 </sst>
 </file>
@@ -107,12 +113,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,15 +422,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -430,9 +438,11 @@
     <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -455,33 +465,45 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="C2" s="4">
         <v>43298</v>
       </c>
       <c r="D2" s="3">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="E2" s="3">
         <v>4</v>
       </c>
       <c r="F2" s="3">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G2" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/MC_toetsen/Testbestanden/toetsinfo.xlsx
+++ b/MC_toetsen/Testbestanden/toetsinfo.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\vu-toetsanalyse\MC_toetsen\Testbestanden\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="11565"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>databestand</t>
   </si>
@@ -55,12 +60,18 @@
   </si>
   <si>
     <t>fswicc1_ruwedata_new.DEL</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>taal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -86,7 +97,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -109,21 +120,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -131,14 +170,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -176,9 +218,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -213,7 +255,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -248,7 +290,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -422,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,29 +484,29 @@
     <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -473,8 +515,11 @@
       <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="K1" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -499,11 +544,14 @@
       <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="7" t="s">
         <v>9</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
